--- a/data/get_data/13.500000_1.400000/1.500000/γ補正評価(α1.5).xlsx
+++ b/data/get_data/13.500000_1.400000/1.500000/γ補正評価(α1.5).xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuto\workspace\ns-3-allinone\ns3.30\data\get_data\13.500000_1.400000\1.500000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C9A85F-A390-495C-9C25-65AC2CAFAA83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8336B3-5355-400F-AFBA-F894AE0BBB27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31800" yWindow="2205" windowWidth="21600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
   <si>
     <t>γ0.1</t>
     <phoneticPr fontId="1"/>
@@ -43,23 +51,49 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>SIGO</t>
+  </si>
+  <si>
+    <t>PDR-average</t>
+  </si>
+  <si>
+    <t>delay-average</t>
+  </si>
+  <si>
+    <t>overhead-average</t>
+  </si>
+  <si>
+    <t>hop-average</t>
+  </si>
+  <si>
     <t>α1.5</t>
+  </si>
+  <si>
+    <t>β13.5</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SIGO</t>
-  </si>
-  <si>
-    <t>PDR-average</t>
-  </si>
-  <si>
-    <t>delay-average</t>
-  </si>
-  <si>
-    <t>overhead-average</t>
-  </si>
-  <si>
-    <t>hop-average</t>
+    <t>senario memo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LSGO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集計</t>
+    <rPh sb="0" eb="2">
+      <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PDR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -90,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -98,15 +132,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -387,15 +468,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,36 +493,70 @@
       <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="X1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="L2" s="1"/>
-      <c r="P2" s="1">
-        <v>200</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>300</v>
-      </c>
-      <c r="R2" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="P2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="X2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="1">
+        <v>200</v>
+      </c>
+      <c r="B3" s="1">
+        <v>300</v>
+      </c>
+      <c r="C3" s="1">
+        <v>400</v>
+      </c>
+      <c r="D3" s="1">
+        <v>200</v>
+      </c>
+      <c r="E3" s="1">
+        <v>300</v>
+      </c>
+      <c r="F3" s="1">
+        <v>400</v>
+      </c>
       <c r="G3" s="1">
         <v>200</v>
       </c>
@@ -456,13 +575,35 @@
       <c r="L3" s="1">
         <v>400</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="P3" s="1">
+        <v>200</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>300</v>
+      </c>
+      <c r="R3" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="19.5" thickBot="1">
+      <c r="A4" s="1">
+        <v>0.27346938775510199</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.51632653061224398</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.73673469387754997</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.265306122448979</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.48571428571428499</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.77142857142857102</v>
+      </c>
       <c r="G4" s="1">
         <v>0.26734693877551002</v>
       </c>
@@ -482,54 +623,136 @@
         <v>0.77755102040816304</v>
       </c>
       <c r="P4" s="1">
-        <v>200</v>
+        <v>0.25510204081632598</v>
       </c>
       <c r="Q4" s="1">
-        <v>300</v>
+        <v>0.473469387755102</v>
       </c>
       <c r="R4" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="P5" s="1">
-        <v>0.25510204081632598</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0.473469387755102</v>
-      </c>
-      <c r="R5" s="1">
         <v>0.73673469387755097</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="U4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="19.5" thickBot="1">
+      <c r="A5" s="2">
+        <f>(A4 - P4)</f>
+        <v>1.8367346938776008E-2</v>
+      </c>
+      <c r="B5" s="3">
+        <f>(B4 - Q4)</f>
+        <v>4.2857142857141983E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <f>(C4 - R4)</f>
+        <v>-9.9920072216264089E-16</v>
+      </c>
+      <c r="D5" s="2">
+        <f>(D4-P4)</f>
+        <v>1.0204081632653017E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" ref="E5:F5" si="0">(E4-Q4)</f>
+        <v>1.2244897959182988E-2</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4693877551020047E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <f>(G4-P4)</f>
+        <v>1.2244897959184042E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <f>(H4-Q4)</f>
+        <v>2.0408163265305979E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <f>(I4-R4)</f>
+        <v>6.1224489795920212E-3</v>
+      </c>
+      <c r="J5" s="1">
+        <f>(J4-P4)</f>
+        <v>6.1224489795920212E-3</v>
+      </c>
+      <c r="K5" s="1">
+        <f>(K4-Q4)</f>
+        <v>5.1020408163264974E-2</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="U5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="V6">
+        <v>200</v>
+      </c>
+      <c r="W6">
+        <v>300</v>
+      </c>
+      <c r="X6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="1">
+        <v>200</v>
+      </c>
+      <c r="B7" s="1">
+        <v>300</v>
+      </c>
+      <c r="C7" s="1">
+        <v>400</v>
+      </c>
+      <c r="D7" s="1">
+        <v>200</v>
+      </c>
+      <c r="E7" s="1">
+        <v>300</v>
+      </c>
+      <c r="F7" s="1">
+        <v>400</v>
+      </c>
       <c r="G7" s="1">
         <v>200</v>
       </c>
@@ -557,8 +780,38 @@
       <c r="R7" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="U7">
+        <v>0.1</v>
+      </c>
+      <c r="V7">
+        <v>1.8367346938776008E-2</v>
+      </c>
+      <c r="W7">
+        <v>4.2857142857141983E-2</v>
+      </c>
+      <c r="X7" s="5">
+        <v>-9.9920072216264108E-16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="19.5" thickBot="1">
+      <c r="A8" s="1">
+        <v>3.3266992176870701E-2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3.5858971622934797E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.9747816982507199E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.21172418367347E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.4710798420796898E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4.0300784920634901E-2</v>
+      </c>
       <c r="G8" s="1">
         <v>3.4068005442176801E-2</v>
       </c>
@@ -586,40 +839,150 @@
       <c r="R8" s="1">
         <v>3.9414952421444702E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="U8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="V8">
+        <v>1.0204081632653017E-2</v>
+      </c>
+      <c r="W8">
+        <v>1.2244897959182988E-2</v>
+      </c>
+      <c r="X8">
+        <v>3.4693877551020047E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="19.5" thickBot="1">
+      <c r="A9" s="2">
+        <f>(A8 - P8)</f>
+        <v>-2.6296360544220132E-4</v>
+      </c>
+      <c r="B9" s="3">
+        <f>(B8 - Q8)</f>
+        <v>1.3491653547132998E-3</v>
+      </c>
+      <c r="C9" s="4">
+        <f>(C8 - R8)</f>
+        <v>3.3286456106249723E-4</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" ref="D9:F9" si="1">(D8-P8)</f>
+        <v>-1.412713945578202E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0099215257540076E-4</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>8.8583249919019919E-4</v>
+      </c>
+      <c r="G9" s="2">
+        <f>(G8-P8)</f>
+        <v>5.3804965986389841E-4</v>
+      </c>
+      <c r="H9" s="3">
+        <f>(H8-Q8)</f>
+        <v>1.0867623177843039E-3</v>
+      </c>
+      <c r="I9" s="4">
+        <f>(I8-R8)</f>
+        <v>1.4711417881438996E-3</v>
+      </c>
+      <c r="J9" s="1">
+        <f>(J8-P8)</f>
+        <v>1.7762517006799511E-4</v>
+      </c>
+      <c r="K9" s="1">
+        <f>(K8-Q8)</f>
+        <v>3.0649277939748046E-3</v>
+      </c>
+      <c r="L9" s="1">
+        <f>(L8-R8)</f>
+        <v>1.708859548104999E-3</v>
+      </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="U9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="V9">
+        <v>1.2244897959184042E-2</v>
+      </c>
+      <c r="W9">
+        <v>2.0408163265305979E-2</v>
+      </c>
+      <c r="X9">
+        <v>6.1224489795920212E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="U10">
+        <v>0.4</v>
+      </c>
+      <c r="V10">
+        <v>6.1224489795920212E-3</v>
+      </c>
+      <c r="W10">
+        <v>5.1020408163264974E-2</v>
+      </c>
+      <c r="X10">
+        <v>4.0816326530612068E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="1">
+        <v>200</v>
+      </c>
+      <c r="B11" s="1">
+        <v>300</v>
+      </c>
+      <c r="C11" s="1">
+        <v>400</v>
+      </c>
+      <c r="D11" s="1">
+        <v>200</v>
+      </c>
+      <c r="E11" s="1">
+        <v>300</v>
+      </c>
+      <c r="F11" s="1">
+        <v>400</v>
+      </c>
       <c r="G11" s="1">
         <v>200</v>
       </c>
@@ -647,8 +1010,29 @@
       <c r="R11" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="U11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="19.5" thickBot="1">
+      <c r="A12" s="1">
+        <v>53.819727891156397</v>
+      </c>
+      <c r="B12" s="1">
+        <v>40.100097181729801</v>
+      </c>
+      <c r="C12" s="1">
+        <v>33.700121477162298</v>
+      </c>
+      <c r="D12" s="1">
+        <v>56.010884353741403</v>
+      </c>
+      <c r="E12" s="1">
+        <v>40.336758989309999</v>
+      </c>
+      <c r="F12" s="1">
+        <v>32.858300939423302</v>
+      </c>
       <c r="G12" s="1">
         <v>55.747619047618997</v>
       </c>
@@ -676,40 +1060,120 @@
       <c r="R12" s="1">
         <v>32.313127632005099</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="U12" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="19.5" thickBot="1">
+      <c r="A13" s="2">
+        <f>(A12 - P12)</f>
+        <v>-4.9812925170067999</v>
+      </c>
+      <c r="B13" s="3">
+        <f>(B12 - Q12)</f>
+        <v>-3.6702866861029975</v>
+      </c>
+      <c r="C13" s="4">
+        <f>(C12 - R12)</f>
+        <v>1.3869938451571997</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:F13" si="2">(D12-P12)</f>
+        <v>-2.7901360544217937</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="2"/>
+        <v>-3.4336248785227994</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="2"/>
+        <v>0.54517330741820302</v>
+      </c>
+      <c r="G13" s="2">
+        <f>(G12-P12)</f>
+        <v>-3.0534013605441999</v>
+      </c>
+      <c r="H13" s="3">
+        <f>(H12-Q12)</f>
+        <v>-3.7394557823128949</v>
+      </c>
+      <c r="I13" s="4">
+        <f>(I12-R12)</f>
+        <v>1.3951571104633018</v>
+      </c>
+      <c r="J13" s="1">
+        <f>(J12-P12)</f>
+        <v>2.1238095238095056</v>
+      </c>
+      <c r="K13" s="1">
+        <f>(K12-Q12)</f>
+        <v>-3.9606899902818</v>
+      </c>
+      <c r="L13" s="1">
+        <f>(L12-R12)</f>
+        <v>0.30800129575639801</v>
+      </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="U13" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:25">
+      <c r="A15" s="1">
+        <v>200</v>
+      </c>
+      <c r="B15" s="1">
+        <v>300</v>
+      </c>
+      <c r="C15" s="1">
+        <v>400</v>
+      </c>
+      <c r="D15" s="1">
+        <v>200</v>
+      </c>
+      <c r="E15" s="1">
+        <v>300</v>
+      </c>
+      <c r="F15" s="1">
+        <v>400</v>
+      </c>
       <c r="G15" s="1">
         <v>200</v>
       </c>
@@ -738,7 +1202,25 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:25" ht="19.5" thickBot="1">
+      <c r="A16" s="1">
+        <v>13.2666666666666</v>
+      </c>
+      <c r="B16" s="1">
+        <v>13.895238095238</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13.838581146744399</v>
+      </c>
+      <c r="D16" s="1">
+        <v>13.127551020408101</v>
+      </c>
+      <c r="E16" s="1">
+        <v>13.7120991253644</v>
+      </c>
+      <c r="F16" s="1">
+        <v>13.976433430515</v>
+      </c>
       <c r="G16" s="1">
         <v>13.2659863945578</v>
       </c>
@@ -767,20 +1249,74 @@
         <v>13.996636139578801</v>
       </c>
     </row>
-    <row r="17" spans="16:18">
+    <row r="17" spans="1:19" ht="19.5" thickBot="1">
+      <c r="A17" s="2">
+        <f>(A16 - P16)</f>
+        <v>7.0551580142700132E-2</v>
+      </c>
+      <c r="B17" s="3">
+        <f>(B16 - Q16)</f>
+        <v>0.68974876424180032</v>
+      </c>
+      <c r="C17" s="4">
+        <f>(C16 - R16)</f>
+        <v>-0.15805499283440128</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" ref="D17:F17" si="3">(D16-P16)</f>
+        <v>-6.8564066115799349E-2</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="3"/>
+        <v>0.50660979436820064</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.0202709063800839E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <f>(G16-P16)</f>
+        <v>6.9871308033899737E-2</v>
+      </c>
+      <c r="H17" s="3">
+        <f>(H16-Q16)</f>
+        <v>0.71319385656450152</v>
+      </c>
+      <c r="I17" s="4">
+        <f>(I16-R16)</f>
+        <v>-0.13677219400060103</v>
+      </c>
+      <c r="J17" s="1">
+        <f>(J16-P16)</f>
+        <v>-0.12536678720420014</v>
+      </c>
+      <c r="K17" s="1">
+        <f>(K16-Q16)</f>
+        <v>0.8300062958258998</v>
+      </c>
+      <c r="L17" s="1">
+        <f>(L16-R16)</f>
+        <v>4.1248538101699594E-2</v>
+      </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="16:18">
+    <row r="18" spans="1:19">
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="16:18">
+    <row r="19" spans="1:19">
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="S21">
+        <f>+U32</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
